--- a/biology/Histoire de la zoologie et de la botanique/Philippe-Joseph-Emmanuel_de_Smyttère/Philippe-Joseph-Emmanuel_de_Smyttère.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Philippe-Joseph-Emmanuel_de_Smyttère/Philippe-Joseph-Emmanuel_de_Smyttère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Philippe-Joseph-Emmanuel_de_Smytt%C3%A8re</t>
+          <t>Philippe-Joseph-Emmanuel_de_Smyttère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe-Joseph-Emmanuel de Smyttère (né le 19 janvier 1800 à Cassel et décédé le 26 janvier 1886 à Lille[1]) était un médecin, botaniste et historien français ayant écrit de nombreux articles sur la Flandre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe-Joseph-Emmanuel de Smyttère (né le 19 janvier 1800 à Cassel et décédé le 26 janvier 1886 à Lille) était un médecin, botaniste et historien français ayant écrit de nombreux articles sur la Flandre.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philippe-Joseph-Emmanuel_de_Smytt%C3%A8re</t>
+          <t>Philippe-Joseph-Emmanuel_de_Smyttère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Topographie historique, physique, statistique et médicale de la ville et des environs de Cassel (département du Nord) : avec cartes géographiques en taille-douce et vues lithographiées, 1828 (Google books)
 Phytologie pharmaceutique et médicale ou Végétaux envisagés sous les rapports anatomique, physiologique, taxonomique, chimique, pharmacologique &amp; thérapeutique, 1829.
